--- a/Tools/ExcelTool/Excel/LevelConfig.xlsx
+++ b/Tools/ExcelTool/Excel/LevelConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>14.12,0.5,2.47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitAngle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -448,7 +460,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -458,8 +470,11 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -469,8 +484,11 @@
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -480,8 +498,11 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1002</v>
       </c>
@@ -490,6 +511,9 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>-90</v>
       </c>
     </row>
   </sheetData>
